--- a/TEACHING/BCB521/Schedule.xlsx
+++ b/TEACHING/BCB521/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barrierobison/Documents/GitHub/RobisonWeb/TEACHING/BCB521/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9A8BF7-778A-AA46-A1F7-0C36E1F7F7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091A3ECB-6A76-7846-B324-2FD015342B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1740" windowWidth="30940" windowHeight="17880" xr2:uid="{EBCA7641-3948-9148-9861-B8FB99728971}"/>
+    <workbookView xWindow="43140" yWindow="4120" windowWidth="30940" windowHeight="17880" xr2:uid="{EBCA7641-3948-9148-9861-B8FB99728971}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>TOPIC</t>
   </si>
   <si>
-    <t>READING</t>
-  </si>
-  <si>
     <t>FINAL PROJECT PRESENTATIONS</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>WRITING WITH DATA 2. AUDIENCES</t>
   </si>
   <si>
-    <t>TOOLS: DEPLOY TO GITHUB.</t>
-  </si>
-  <si>
     <t>WRITING WITH DATA 3. SCIENTIFIC WRITING.</t>
   </si>
   <si>
@@ -128,9 +122,6 @@
     <t>SPEAKING: THAT ONE VIDEO</t>
   </si>
   <si>
-    <t>TOOLS: PRESENTATION SLIDES WITH PPT AND OTHER CRAP.</t>
-  </si>
-  <si>
     <t>SPEAKING: AUDIENCES</t>
   </si>
   <si>
@@ -155,9 +146,6 @@
     <t>Rstudio and Quarto</t>
   </si>
   <si>
-    <t>My First Repository</t>
-  </si>
-  <si>
     <t>My First Portfolio Post</t>
   </si>
   <si>
@@ -189,6 +177,18 @@
   </si>
   <si>
     <t>Midterm Assignment</t>
+  </si>
+  <si>
+    <t>RESOURCES</t>
+  </si>
+  <si>
+    <t>TOOLS: EMERGING AI TOOLS</t>
+  </si>
+  <si>
+    <t>Automation vs Augmentation</t>
+  </si>
+  <si>
+    <t>TOOLS: PRESENTATION SLIDES WITH PPT etc.</t>
   </si>
 </sst>
 </file>
@@ -661,7 +661,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,13 +682,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -696,7 +696,7 @@
         <v>45160</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3"/>
       <c r="E2" s="3"/>
@@ -706,11 +706,11 @@
         <v>45162</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -719,11 +719,11 @@
         <v>45167</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -732,11 +732,11 @@
         <v>45169</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -746,12 +746,12 @@
         <v>45174</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -760,10 +760,10 @@
         <v>45176</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -773,11 +773,11 @@
         <v>45181</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -786,10 +786,10 @@
         <v>45183</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -799,12 +799,12 @@
         <v>45188</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -813,12 +813,11 @@
         <v>45190</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -826,12 +825,11 @@
         <v>45195</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>41</v>
+      <c r="E12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -840,10 +838,10 @@
         <v>45197</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -853,12 +851,12 @@
         <v>45202</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -867,11 +865,11 @@
         <v>45204</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -881,12 +879,12 @@
         <v>45209</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -895,11 +893,11 @@
         <v>45211</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -909,12 +907,12 @@
         <v>45216</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -923,11 +921,11 @@
         <v>45218</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -937,12 +935,12 @@
         <v>45223</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -951,7 +949,7 @@
         <v>45225</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -962,11 +960,11 @@
         <v>45230</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E22" s="3"/>
     </row>
@@ -976,11 +974,11 @@
         <v>45232</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -989,11 +987,11 @@
         <v>45237</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -1002,12 +1000,12 @@
         <v>45239</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -1016,11 +1014,11 @@
         <v>45244</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E26" s="3"/>
     </row>
@@ -1030,14 +1028,14 @@
         <v>45246</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -1046,7 +1044,7 @@
         <v>45251</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1058,7 +1056,7 @@
         <v>45253</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1070,7 +1068,7 @@
         <v>45258</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1082,7 +1080,7 @@
         <v>45260</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1093,12 +1091,12 @@
         <v>45265</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -1107,11 +1105,11 @@
         <v>45267</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -1120,11 +1118,11 @@
         <v>45272</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E34" s="3"/>
     </row>

--- a/TEACHING/BCB521/Schedule.xlsx
+++ b/TEACHING/BCB521/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barrierobison/Documents/GitHub/RobisonWeb/TEACHING/BCB521/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091A3ECB-6A76-7846-B324-2FD015342B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71D883B-A7E9-8245-BE9F-A5E3609E7C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43140" yWindow="4120" windowWidth="30940" windowHeight="17880" xr2:uid="{EBCA7641-3948-9148-9861-B8FB99728971}"/>
+    <workbookView xWindow="80" yWindow="700" windowWidth="35040" windowHeight="18780" xr2:uid="{EBCA7641-3948-9148-9861-B8FB99728971}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>DATE</t>
   </si>
@@ -62,15 +62,9 @@
     <t>INTRODUCTION</t>
   </si>
   <si>
-    <t>TOOLS: VERSION CONTROL 1.</t>
-  </si>
-  <si>
     <t>WRITING WITH DATA 1. BASICS.</t>
   </si>
   <si>
-    <t>TOOLS: LITERATE PROGRAMMING 1.</t>
-  </si>
-  <si>
     <t>WRITING WITH DATA 2. AUDIENCES</t>
   </si>
   <si>
@@ -134,24 +128,9 @@
     <t>FINAL ASSIGNMENT: A RECORDED VIDEO</t>
   </si>
   <si>
-    <t>DEAD WEEK: REVIEW EACH OTHER'S STUFF</t>
-  </si>
-  <si>
     <t>NO EXAMS HERE…</t>
   </si>
   <si>
-    <t>Make a GitHub Account</t>
-  </si>
-  <si>
-    <t>Rstudio and Quarto</t>
-  </si>
-  <si>
-    <t>My First Portfolio Post</t>
-  </si>
-  <si>
-    <t>Pull Requests</t>
-  </si>
-  <si>
     <t>Explaining stuff to my Mom</t>
   </si>
   <si>
@@ -189,6 +168,30 @@
   </si>
   <si>
     <t>TOOLS: PRESENTATION SLIDES WITH PPT etc.</t>
+  </si>
+  <si>
+    <t>No in person class</t>
+  </si>
+  <si>
+    <t>TOOLS: VERSION CONTROL and LITERATE PROGRAMMING</t>
+  </si>
+  <si>
+    <t>TOOLS: LITERATE PROGRAMMING 2.</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>[Assignment 1](Assignments/A1-Lit-Prog/index.qmd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Assignment 1](Assignments/A1-Lit-Prog/index.qmd) </t>
+  </si>
+  <si>
+    <t>[Assignment 2](Assignments/A1-Lit-Prog/index.qmd)</t>
+  </si>
+  <si>
+    <t>[Assignment 3]</t>
   </si>
 </sst>
 </file>
@@ -265,13 +268,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -313,14 +316,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -661,7 +664,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -695,8 +698,8 @@
       <c r="A2" s="2">
         <v>45160</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
+      <c r="B2" t="s">
+        <v>44</v>
       </c>
       <c r="C2" s="3"/>
       <c r="E2" s="3"/>
@@ -705,12 +708,12 @@
       <c r="A3" s="2">
         <v>45162</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
+      <c r="B3" t="s">
+        <v>44</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -718,13 +721,11 @@
         <f>A2+7</f>
         <v>45167</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -732,26 +733,30 @@
         <v>45169</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <f t="shared" ref="A6:A32" si="0">A4+7</f>
         <v>45174</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
+      <c r="B6" t="s">
+        <v>8</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="E6" s="3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -760,11 +765,9 @@
         <v>45176</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -773,12 +776,13 @@
         <v>45181</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -786,10 +790,10 @@
         <v>45183</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -799,13 +803,10 @@
         <v>45188</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="11" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -813,10 +814,10 @@
         <v>45190</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -825,11 +826,11 @@
         <v>45195</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3"/>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -838,10 +839,10 @@
         <v>45197</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -851,12 +852,12 @@
         <v>45202</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -865,11 +866,11 @@
         <v>45204</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -879,12 +880,12 @@
         <v>45209</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -893,11 +894,11 @@
         <v>45211</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -907,12 +908,12 @@
         <v>45216</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -921,11 +922,11 @@
         <v>45218</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -935,12 +936,12 @@
         <v>45223</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -949,7 +950,7 @@
         <v>45225</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -960,11 +961,11 @@
         <v>45230</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E22" s="3"/>
     </row>
@@ -974,11 +975,11 @@
         <v>45232</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -987,11 +988,11 @@
         <v>45237</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -1000,12 +1001,12 @@
         <v>45239</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -1014,11 +1015,11 @@
         <v>45244</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E26" s="3"/>
     </row>
@@ -1028,14 +1029,14 @@
         <v>45246</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -1046,7 +1047,6 @@
       <c r="B28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
@@ -1058,7 +1058,6 @@
       <c r="B29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
@@ -1068,7 +1067,7 @@
         <v>45258</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1080,7 +1079,7 @@
         <v>45260</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1091,7 +1090,7 @@
         <v>45265</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1105,7 +1104,7 @@
         <v>45267</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
@@ -1122,12 +1121,13 @@
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
   </sheetData>

--- a/TEACHING/BCB521/Schedule.xlsx
+++ b/TEACHING/BCB521/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barrierobison/Documents/GitHub/RobisonWeb/TEACHING/BCB521/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71D883B-A7E9-8245-BE9F-A5E3609E7C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2378C0-A286-994C-BCC0-58B0E54926BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="700" windowWidth="35040" windowHeight="18780" xr2:uid="{EBCA7641-3948-9148-9861-B8FB99728971}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>DATE</t>
   </si>
@@ -62,9 +62,6 @@
     <t>INTRODUCTION</t>
   </si>
   <si>
-    <t>WRITING WITH DATA 1. BASICS.</t>
-  </si>
-  <si>
     <t>WRITING WITH DATA 2. AUDIENCES</t>
   </si>
   <si>
@@ -188,10 +185,19 @@
     <t xml:space="preserve">[Assignment 1](Assignments/A1-Lit-Prog/index.qmd) </t>
   </si>
   <si>
-    <t>[Assignment 2](Assignments/A1-Lit-Prog/index.qmd)</t>
-  </si>
-  <si>
-    <t>[Assignment 3]</t>
+    <t>[Assignment 2](Assignments/A2-PortfolioSetUp/index.qmd)</t>
+  </si>
+  <si>
+    <t>[Assignment 3](Assignments/A3-YourData/index.qmd)</t>
+  </si>
+  <si>
+    <t>WRITING WITH DATA 1. Describing Your Data</t>
+  </si>
+  <si>
+    <t>[Literate Programming Tutorial](Resources/T1-Lit-Prog/index.qmd)</t>
+  </si>
+  <si>
+    <t>[Rstudio and Git](Resources/T2-RStudioGit/index.qmd)</t>
   </si>
 </sst>
 </file>
@@ -664,7 +670,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -685,7 +691,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -699,7 +705,7 @@
         <v>45160</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3"/>
       <c r="E2" s="3"/>
@@ -709,11 +715,13 @@
         <v>45162</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -733,14 +741,16 @@
         <v>45169</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -749,14 +759,14 @@
         <v>45174</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -765,7 +775,7 @@
         <v>45176</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -776,10 +786,10 @@
         <v>45181</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -790,10 +800,10 @@
         <v>45183</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -803,7 +813,7 @@
         <v>45188</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -814,10 +824,10 @@
         <v>45190</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -826,11 +836,11 @@
         <v>45195</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3"/>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -839,10 +849,10 @@
         <v>45197</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -852,12 +862,12 @@
         <v>45202</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -866,11 +876,11 @@
         <v>45204</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -880,12 +890,12 @@
         <v>45209</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -894,11 +904,11 @@
         <v>45211</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -908,12 +918,12 @@
         <v>45216</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -922,11 +932,11 @@
         <v>45218</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -936,12 +946,12 @@
         <v>45223</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -950,7 +960,7 @@
         <v>45225</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -961,11 +971,11 @@
         <v>45230</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="3"/>
     </row>
@@ -975,11 +985,11 @@
         <v>45232</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -988,11 +998,11 @@
         <v>45237</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -1001,12 +1011,12 @@
         <v>45239</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -1015,11 +1025,11 @@
         <v>45244</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" s="3"/>
     </row>
@@ -1029,14 +1039,14 @@
         <v>45246</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -1067,7 +1077,7 @@
         <v>45258</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1079,7 +1089,7 @@
         <v>45260</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1090,7 +1100,7 @@
         <v>45265</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1104,7 +1114,7 @@
         <v>45267</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
@@ -1121,7 +1131,7 @@
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E34" s="3"/>
     </row>
